--- a/2020/Requisition/February/10.02.2020 Requisition of Mughdo Corporation.xlsx
+++ b/2020/Requisition/February/10.02.2020 Requisition of Mughdo Corporation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2020\Requisition\February\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5A3BA4-C1A6-4BFC-A3CC-95E5FE5AFB04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2369266-4CA8-4034-9C7C-358F6A17DC1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="60" windowWidth="13320" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Requisition" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="136">
   <si>
     <t>Model Name</t>
   </si>
@@ -448,6 +448,9 @@
   </si>
   <si>
     <t>10.02.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -1119,13 +1122,13 @@
   <sheetPr filterMode="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:BV109"/>
+  <dimension ref="A1:BV110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E105" sqref="E105"/>
+      <selection pane="bottomRight" activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -2311,17 +2314,19 @@
       <c r="BU31" s="26"/>
       <c r="BV31" s="26"/>
     </row>
-    <row r="32" spans="1:74" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:74" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>111</v>
       </c>
       <c r="B32" s="9">
         <v>2252.42</v>
       </c>
-      <c r="C32" s="8"/>
+      <c r="C32" s="8">
+        <v>5</v>
+      </c>
       <c r="D32" s="10">
         <f>C32*B32</f>
-        <v>0</v>
+        <v>11262.1</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>92</v>
@@ -2436,11 +2441,11 @@
         <v>4885.6000000000004</v>
       </c>
       <c r="C35" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D35" s="10">
         <f t="shared" si="0"/>
-        <v>48856</v>
+        <v>97712</v>
       </c>
       <c r="E35" s="40" t="s">
         <v>123</v>
@@ -2553,11 +2558,11 @@
         <v>5412.5</v>
       </c>
       <c r="C38" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D38" s="10">
         <f>C38*B38</f>
-        <v>54125</v>
+        <v>27062.5</v>
       </c>
       <c r="E38" s="40" t="s">
         <v>122</v>
@@ -2718,11 +2723,11 @@
         <v>6306.98</v>
       </c>
       <c r="C44" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D44" s="10">
         <f t="shared" si="0"/>
-        <v>31534.899999999998</v>
+        <v>63069.799999999996</v>
       </c>
       <c r="E44" s="42" t="s">
         <v>129</v>
@@ -3175,11 +3180,11 @@
         <v>4076.68</v>
       </c>
       <c r="C74" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D74" s="10">
         <f t="shared" si="1"/>
-        <v>20383.399999999998</v>
+        <v>40766.799999999996</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>92</v>
@@ -3660,17 +3665,19 @@
       <c r="BB88" s="32"/>
       <c r="BC88" s="32"/>
     </row>
-    <row r="89" spans="1:74" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:74" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>114</v>
       </c>
       <c r="B89" s="9">
         <v>3520.36</v>
       </c>
-      <c r="C89" s="8"/>
+      <c r="C89" s="8">
+        <v>20</v>
+      </c>
       <c r="D89" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>70407.199999999997</v>
       </c>
       <c r="E89" s="41" t="s">
         <v>92</v>
@@ -3932,11 +3939,11 @@
         <v>7165.02</v>
       </c>
       <c r="C93" s="8">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D93" s="10">
         <f t="shared" si="2"/>
-        <v>229280.64000000001</v>
+        <v>358251</v>
       </c>
       <c r="E93" s="8" t="s">
         <v>127</v>
@@ -4047,11 +4054,11 @@
       <c r="B97" s="47"/>
       <c r="C97" s="16">
         <f>SUBTOTAL(9,C7:C96)</f>
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="D97" s="17">
-        <f>SUBTOTAL(9,D33:D96)</f>
-        <v>413143.74</v>
+        <f>SUBTOTAL(9,D32:D96)</f>
+        <v>697495.2</v>
       </c>
       <c r="E97" s="31"/>
       <c r="F97" s="33"/>
@@ -4208,7 +4215,7 @@
         <v>22</v>
       </c>
       <c r="C102" s="21">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>132</v>
@@ -4221,21 +4228,23 @@
     <row r="103" spans="1:55" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="29"/>
       <c r="B103" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C103" s="21"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="23"/>
-      <c r="F103" s="25"/>
+        <v>22</v>
+      </c>
+      <c r="C103" s="21">
+        <v>300000</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>132</v>
+      </c>
       <c r="G103" s="38"/>
-      <c r="H103" s="37"/>
-      <c r="I103" s="39"/>
+      <c r="H103" s="38"/>
+      <c r="I103" s="38"/>
       <c r="J103" s="37"/>
     </row>
     <row r="104" spans="1:55" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="29"/>
       <c r="B104" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C104" s="21"/>
       <c r="D104" s="8"/>
@@ -4243,44 +4252,61 @@
       <c r="F104" s="25"/>
       <c r="G104" s="38"/>
       <c r="H104" s="37"/>
-      <c r="I104" s="37"/>
+      <c r="I104" s="39"/>
       <c r="J104" s="37"/>
     </row>
     <row r="105" spans="1:55" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="29"/>
       <c r="B105" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C105" s="21"/>
       <c r="D105" s="8"/>
       <c r="E105" s="23"/>
       <c r="F105" s="25"/>
+      <c r="G105" s="38"/>
+      <c r="H105" s="37"/>
+      <c r="I105" s="37"/>
+      <c r="J105" s="37"/>
     </row>
     <row r="106" spans="1:55" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="28"/>
-      <c r="B106" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C106" s="22">
-        <f>SUBTOTAL(9,C101:C105)</f>
-        <v>300000</v>
-      </c>
-      <c r="D106" s="15"/>
+      <c r="A106" s="29"/>
+      <c r="B106" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C106" s="21"/>
+      <c r="D106" s="8"/>
       <c r="E106" s="23"/>
       <c r="F106" s="25"/>
     </row>
-    <row r="107" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A107" s="30"/>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="24"/>
-      <c r="F107" s="26"/>
+    <row r="107" spans="1:55" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="28"/>
+      <c r="B107" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" s="22">
+        <f>SUBTOTAL(9,C101:C106)</f>
+        <v>700000</v>
+      </c>
+      <c r="D107" s="15"/>
+      <c r="E107" s="23"/>
+      <c r="F107" s="25"/>
     </row>
     <row r="108" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A108" s="30"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
       <c r="E108" s="24"/>
+      <c r="F108" s="26"/>
     </row>
     <row r="109" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="D109" s="1" t="s">
+      <c r="C109" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E109" s="24"/>
+    </row>
+    <row r="110" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="D110" s="1" t="s">
         <v>116</v>
       </c>
     </row>
